--- a/EVN.Api/Templates/BaoCaoChiTietMucDoHaiLong.xlsx
+++ b/EVN.Api/Templates/BaoCaoChiTietMucDoHaiLong.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeEvn\GiamSatTrungAp\GiamSatTrungAp_BE\EVN.Api\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E69590-CD90-402C-9E29-8641B62DF050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E172FD0-0B87-454A-83B3-2CFAC5FC9136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BDF4ADF7-C0A5-4A4C-8B20-8298B52B8FD5}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11295" xr2:uid="{BDF4ADF7-C0A5-4A4C-8B20-8298B52B8FD5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -102,9 +102,6 @@
     <t>Ý kiến nhận xét của KH</t>
   </si>
   <si>
-    <t>Nội dung ghi nhận và chuyển đơn vị xử lý (các ban liên quan/CTĐL)</t>
-  </si>
-  <si>
     <t>Phản hồi  của đơn vị xử lý</t>
   </si>
   <si>
@@ -178,6 +175,9 @@
   </si>
   <si>
     <t xml:space="preserve">Có </t>
+  </si>
+  <si>
+    <t>Nội dung ghi nhận xác minh lại thông tin khách hàng</t>
   </si>
 </sst>
 </file>
@@ -334,31 +334,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -736,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136588D4-E1E1-4848-9709-E00A3CB23DB9}">
   <dimension ref="A1:AX10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AW8" sqref="AW8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -984,73 +984,73 @@
       <c r="A5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12" t="s">
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12" t="s">
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12" t="s">
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="AD5" s="12"/>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="12"/>
-      <c r="AH5" s="12"/>
-      <c r="AI5" s="12" t="s">
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="19"/>
+      <c r="AF5" s="19"/>
+      <c r="AG5" s="19"/>
+      <c r="AH5" s="19"/>
+      <c r="AI5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="AJ5" s="12"/>
+      <c r="AJ5" s="19"/>
       <c r="AK5" s="10" t="s">
         <v>20</v>
       </c>
@@ -1058,202 +1058,202 @@
       <c r="AM5" s="10"/>
       <c r="AN5" s="10"/>
       <c r="AO5" s="5"/>
-      <c r="AP5" s="12" t="s">
+      <c r="AP5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="AQ5" s="12"/>
-      <c r="AR5" s="12"/>
-      <c r="AS5" s="12" t="s">
+      <c r="AQ5" s="19"/>
+      <c r="AR5" s="19"/>
+      <c r="AS5" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="AT5" s="12" t="s">
+      <c r="AT5" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="AU5" s="12" t="s">
+      <c r="AU5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="AV5" s="12" t="s">
+      <c r="AV5" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="AW5" s="12" t="s">
+      <c r="AW5" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="AX5" s="19" t="s">
         <v>26</v>
-      </c>
-      <c r="AX5" s="12" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:50" s="11" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12" t="s">
+      <c r="T6" s="19"/>
+      <c r="U6" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12" t="s">
+      <c r="V6" s="19"/>
+      <c r="W6" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12" t="s">
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12" t="s">
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12" t="s">
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="12" t="s">
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF6" s="19"/>
+      <c r="AG6" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH6" s="19"/>
+      <c r="AI6" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF6" s="12"/>
-      <c r="AG6" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH6" s="12"/>
-      <c r="AI6" s="13" t="s">
+      <c r="AJ6" s="20"/>
+      <c r="AK6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AJ6" s="13"/>
-      <c r="AK6" s="5" t="s">
+      <c r="AL6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AL6" s="5" t="s">
+      <c r="AM6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AM6" s="5" t="s">
+      <c r="AN6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AN6" s="5" t="s">
+      <c r="AO6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AO6" s="5" t="s">
+      <c r="AP6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AP6" s="5" t="s">
+      <c r="AQ6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AQ6" s="5" t="s">
+      <c r="AR6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AR6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS6" s="12"/>
-      <c r="AT6" s="12"/>
-      <c r="AU6" s="12"/>
-      <c r="AV6" s="12"/>
-      <c r="AW6" s="12"/>
-      <c r="AX6" s="12"/>
+      <c r="AS6" s="19"/>
+      <c r="AT6" s="19"/>
+      <c r="AU6" s="19"/>
+      <c r="AV6" s="19"/>
+      <c r="AW6" s="19"/>
+      <c r="AX6" s="19"/>
     </row>
     <row r="7" spans="1:50" s="11" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
       <c r="M7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="O7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="O7" s="5" t="s">
+      <c r="P7" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P7" s="5" t="s">
+      <c r="Q7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="Q7" s="5" t="s">
+      <c r="R7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="R7" s="5" t="s">
+      <c r="S7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="X7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="S7" s="5" t="s">
+      <c r="AJ7" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="T7" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="U7" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="V7" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="W7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="X7" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y7" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z7" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA7" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB7" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC7" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD7" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE7" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF7" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG7" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH7" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="AJ7" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="AK7" s="5"/>
       <c r="AL7" s="5"/>
@@ -1263,171 +1263,193 @@
       <c r="AP7" s="5"/>
       <c r="AQ7" s="5"/>
       <c r="AR7" s="5"/>
-      <c r="AS7" s="12"/>
-      <c r="AT7" s="12"/>
-      <c r="AU7" s="12"/>
-      <c r="AV7" s="12"/>
-      <c r="AW7" s="12"/>
-      <c r="AX7" s="12"/>
+      <c r="AS7" s="19"/>
+      <c r="AT7" s="19"/>
+      <c r="AU7" s="19"/>
+      <c r="AV7" s="19"/>
+      <c r="AW7" s="19"/>
+      <c r="AX7" s="19"/>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="20"/>
-      <c r="X8" s="20"/>
-      <c r="Y8" s="20"/>
-      <c r="Z8" s="20"/>
-      <c r="AA8" s="20"/>
-      <c r="AB8" s="20"/>
-      <c r="AC8" s="20"/>
-      <c r="AD8" s="20"/>
-      <c r="AE8" s="20"/>
-      <c r="AF8" s="20"/>
-      <c r="AG8" s="20"/>
-      <c r="AH8" s="20"/>
-      <c r="AI8" s="20"/>
-      <c r="AJ8" s="20"/>
-      <c r="AK8" s="20"/>
-      <c r="AL8" s="20"/>
-      <c r="AM8" s="20"/>
-      <c r="AN8" s="20"/>
-      <c r="AO8" s="20"/>
-      <c r="AP8" s="20"/>
-      <c r="AQ8" s="20"/>
-      <c r="AR8" s="20"/>
-      <c r="AS8" s="20"/>
-      <c r="AT8" s="20"/>
-      <c r="AU8" s="20"/>
-      <c r="AV8" s="20"/>
-      <c r="AW8" s="20"/>
-      <c r="AX8" s="20"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="13"/>
+      <c r="AD8" s="13"/>
+      <c r="AE8" s="13"/>
+      <c r="AF8" s="13"/>
+      <c r="AG8" s="13"/>
+      <c r="AH8" s="13"/>
+      <c r="AI8" s="13"/>
+      <c r="AJ8" s="13"/>
+      <c r="AK8" s="13"/>
+      <c r="AL8" s="13"/>
+      <c r="AM8" s="13"/>
+      <c r="AN8" s="13"/>
+      <c r="AO8" s="13"/>
+      <c r="AP8" s="13"/>
+      <c r="AQ8" s="13"/>
+      <c r="AR8" s="13"/>
+      <c r="AS8" s="13"/>
+      <c r="AT8" s="13"/>
+      <c r="AU8" s="13"/>
+      <c r="AV8" s="13"/>
+      <c r="AW8" s="13"/>
+      <c r="AX8" s="13"/>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20"/>
-      <c r="W9" s="20"/>
-      <c r="X9" s="20"/>
-      <c r="Y9" s="20"/>
-      <c r="Z9" s="20"/>
-      <c r="AA9" s="20"/>
-      <c r="AB9" s="20"/>
-      <c r="AC9" s="20"/>
-      <c r="AD9" s="20"/>
-      <c r="AE9" s="20"/>
-      <c r="AF9" s="20"/>
-      <c r="AG9" s="20"/>
-      <c r="AH9" s="20"/>
-      <c r="AI9" s="20"/>
-      <c r="AJ9" s="20"/>
-      <c r="AK9" s="20"/>
-      <c r="AL9" s="20"/>
-      <c r="AM9" s="20"/>
-      <c r="AN9" s="20"/>
-      <c r="AO9" s="20"/>
-      <c r="AP9" s="20"/>
-      <c r="AQ9" s="20"/>
-      <c r="AR9" s="20"/>
-      <c r="AS9" s="20"/>
-      <c r="AT9" s="20"/>
-      <c r="AU9" s="20"/>
-      <c r="AV9" s="20"/>
-      <c r="AW9" s="20"/>
-      <c r="AX9" s="20"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="13"/>
+      <c r="AI9" s="13"/>
+      <c r="AJ9" s="13"/>
+      <c r="AK9" s="13"/>
+      <c r="AL9" s="13"/>
+      <c r="AM9" s="13"/>
+      <c r="AN9" s="13"/>
+      <c r="AO9" s="13"/>
+      <c r="AP9" s="13"/>
+      <c r="AQ9" s="13"/>
+      <c r="AR9" s="13"/>
+      <c r="AS9" s="13"/>
+      <c r="AT9" s="13"/>
+      <c r="AU9" s="13"/>
+      <c r="AV9" s="13"/>
+      <c r="AW9" s="13"/>
+      <c r="AX9" s="13"/>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="20"/>
-      <c r="X10" s="20"/>
-      <c r="Y10" s="20"/>
-      <c r="Z10" s="20"/>
-      <c r="AA10" s="20"/>
-      <c r="AB10" s="20"/>
-      <c r="AC10" s="20"/>
-      <c r="AD10" s="20"/>
-      <c r="AE10" s="20"/>
-      <c r="AF10" s="20"/>
-      <c r="AG10" s="20"/>
-      <c r="AH10" s="20"/>
-      <c r="AI10" s="20"/>
-      <c r="AJ10" s="20"/>
-      <c r="AK10" s="20"/>
-      <c r="AL10" s="20"/>
-      <c r="AM10" s="20"/>
-      <c r="AN10" s="20"/>
-      <c r="AO10" s="20"/>
-      <c r="AP10" s="20"/>
-      <c r="AQ10" s="20"/>
-      <c r="AR10" s="20"/>
-      <c r="AS10" s="20"/>
-      <c r="AT10" s="20"/>
-      <c r="AU10" s="20"/>
-      <c r="AV10" s="20"/>
-      <c r="AW10" s="20"/>
-      <c r="AX10" s="20"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="13"/>
+      <c r="AF10" s="13"/>
+      <c r="AG10" s="13"/>
+      <c r="AH10" s="13"/>
+      <c r="AI10" s="13"/>
+      <c r="AJ10" s="13"/>
+      <c r="AK10" s="13"/>
+      <c r="AL10" s="13"/>
+      <c r="AM10" s="13"/>
+      <c r="AN10" s="13"/>
+      <c r="AO10" s="13"/>
+      <c r="AP10" s="13"/>
+      <c r="AQ10" s="13"/>
+      <c r="AR10" s="13"/>
+      <c r="AS10" s="13"/>
+      <c r="AT10" s="13"/>
+      <c r="AU10" s="13"/>
+      <c r="AV10" s="13"/>
+      <c r="AW10" s="13"/>
+      <c r="AX10" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="AV5:AV7"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="AT5:AT7"/>
+    <mergeCell ref="AU5:AU7"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="AW5:AW7"/>
+    <mergeCell ref="AX5:AX7"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Q5:V5"/>
+    <mergeCell ref="W5:AB5"/>
+    <mergeCell ref="AC5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AP5:AR5"/>
+    <mergeCell ref="AS5:AS7"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="AA6:AB6"/>
     <mergeCell ref="A1:AX1"/>
     <mergeCell ref="A2:AX2"/>
     <mergeCell ref="A3:AX3"/>
@@ -1444,28 +1466,6 @@
     <mergeCell ref="J5:J7"/>
     <mergeCell ref="K5:K7"/>
     <mergeCell ref="L5:L7"/>
-    <mergeCell ref="M5:P5"/>
-    <mergeCell ref="AW5:AW7"/>
-    <mergeCell ref="AX5:AX7"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Q5:V5"/>
-    <mergeCell ref="W5:AB5"/>
-    <mergeCell ref="AC5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AP5:AR5"/>
-    <mergeCell ref="AS5:AS7"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AV5:AV7"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="AT5:AT7"/>
-    <mergeCell ref="AU5:AU7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4" xr:uid="{9645B569-B35F-4720-8EB6-87E1D1627CC0}">
